--- a/论文实验结果.xlsx
+++ b/论文实验结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="实验结果" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>模型</t>
   </si>
@@ -35,28 +35,19 @@
     <t>CIFAR-100</t>
   </si>
   <si>
-    <t>ImageNet-100</t>
-  </si>
-  <si>
     <t>ImageNet-R</t>
   </si>
   <si>
-    <t>top-1</t>
-  </si>
-  <si>
-    <t>top-5</t>
-  </si>
-  <si>
     <t>5 steps</t>
   </si>
   <si>
     <t>10 steps</t>
   </si>
   <si>
-    <t>50 steps</t>
-  </si>
-  <si>
-    <t>20 steps</t>
+    <t>average</t>
+  </si>
+  <si>
+    <t>last stage</t>
   </si>
   <si>
     <t>PackNet</t>
@@ -98,12 +89,6 @@
     <t>71.161 /72.90</t>
   </si>
   <si>
-    <t>77.67/77.547(10 steps)</t>
-  </si>
-  <si>
-    <t>93.61(10 steps)</t>
-  </si>
-  <si>
     <t>RMM</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
   </si>
   <si>
     <t>rmm-main</t>
-  </si>
-  <si>
-    <t>68.99 +/- 0.81/ 68.86(5steps)</t>
   </si>
   <si>
     <t>样本
@@ -138,10 +120,10 @@
     <t>WA</t>
   </si>
   <si>
-    <t>64.99/66.6(no first step)</t>
-  </si>
-  <si>
-    <t>64.4/64.5(no first step)</t>
+    <t>64.99/66.6</t>
+  </si>
+  <si>
+    <t>64.4/64.5</t>
   </si>
   <si>
     <t>正则化</t>
@@ -169,9 +151,6 @@
   </si>
   <si>
     <t>86.51±0.33/84.66</t>
-  </si>
-  <si>
-    <t>73.965/68.13±0.49</t>
   </si>
   <si>
     <t>CODA-Prompt</t>
@@ -223,7 +202,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,11 +255,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -304,12 +278,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -711,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -797,9 +765,29 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -833,6 +821,17 @@
       </right>
       <top style="medium">
         <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -943,10 +942,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,137 +954,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,7 +1136,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,16 +1151,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,91 +1169,97 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,37 +1581,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.23148148148148" style="10"/>
-    <col min="2" max="2" width="25.4259259259259" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.9074074074074" style="10" customWidth="1"/>
     <col min="3" max="3" width="9.23148148148148" style="10"/>
     <col min="4" max="4" width="14.2407407407407" style="10" customWidth="1"/>
-    <col min="5" max="5" width="57.1203703703704" style="11" customWidth="1"/>
-    <col min="6" max="6" width="38.2777777777778" style="10" customWidth="1"/>
-    <col min="7" max="7" width="37.9259259259259" style="10" customWidth="1"/>
-    <col min="8" max="8" width="30.2592592592593" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="30.0833333333333" style="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.8796296296296" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.962962962963" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.712962962963" style="10" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6018518518519" style="10" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="29.7314814814815" style="10" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="17.1481481481481" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="31.1574074074074" style="10" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="32.5462962962963" style="10" customWidth="1"/>
-    <col min="19" max="22" width="17.1481481481481" style="10" customWidth="1"/>
-    <col min="23" max="16378" width="9.23148148148148" style="10"/>
-    <col min="16382" max="16384" width="9.23148148148148" style="10"/>
+    <col min="5" max="5" width="28.6203703703704" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.4351851851852" style="10" customWidth="1"/>
+    <col min="7" max="7" width="21.1666666666667" style="10" customWidth="1"/>
+    <col min="8" max="8" width="30.4537037037037" style="10" customWidth="1"/>
+    <col min="9" max="9" width="30.2592592592593" style="10" customWidth="1"/>
+    <col min="10" max="13" width="17.1481481481481" style="10" customWidth="1"/>
+    <col min="14" max="16376" width="9.23148148148148" style="10"/>
+    <col min="16380" max="16384" width="9.23148148148148" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.3" customHeight="1" spans="1:22">
+    <row r="1" ht="25.3" customHeight="1" spans="1:13">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1623,18 +1626,9 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="53"/>
-    </row>
-    <row r="2" ht="25.3" customHeight="1" spans="1:22">
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" ht="25.3" customHeight="1" spans="1:13">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1646,784 +1640,518 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="3" ht="25.3" customHeight="1" spans="1:22">
+    </row>
+    <row r="3" ht="25.3" customHeight="1" spans="1:13">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="17" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:22">
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:13">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="21" t="s">
+      <c r="B7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+      <c r="C7" s="35">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A7" s="30" t="s">
+      <c r="E7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="F7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="32">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="U7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="37">
+        <v>88.58</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A9" s="38"/>
+      <c r="B9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="41">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A10" s="38"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41">
+        <v>91.98</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A11" s="38"/>
+      <c r="B11" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="41">
         <v>2021</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="D11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A12" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="44">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="44">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" ht="43" customHeight="1" spans="1:27">
+      <c r="A14" s="46"/>
+      <c r="B14" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="44">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="AA14" s="58"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:27">
+      <c r="A15" s="46"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A16" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="48">
+        <v>2016</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48">
+        <v>45.139</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A17" s="50"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" ht="20.5" customHeight="1" spans="1:13">
+      <c r="A18" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" ht="20.5" customHeight="1" spans="1:13">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32">
-        <v>92.182</v>
-      </c>
-      <c r="J7" s="32">
-        <v>91.427</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="10" t="s">
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52">
+        <v>89.315</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+    </row>
+    <row r="20" ht="20.5" customHeight="1" spans="1:13">
+      <c r="A20" s="54"/>
+      <c r="B20" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="34">
-        <v>88.58</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A9" s="35"/>
-      <c r="B9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="38">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38">
-        <v>92.514</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38">
-        <v>77.167</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38">
-        <v>93.225</v>
-      </c>
-      <c r="Q9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A10" s="35"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38">
-        <v>91.98</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A11" s="35"/>
-      <c r="B11" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="38">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A12" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="40">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40">
-        <v>88.122</v>
-      </c>
-      <c r="J12" s="40">
-        <v>85.738</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A13" s="42"/>
-      <c r="B13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="40">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40">
-        <v>84.898</v>
-      </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:29">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="40">
-        <v>2020</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40">
-        <v>89.794</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="AC14" s="54"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:29">
-      <c r="A15" s="42"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A16" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="44" t="s">
+      <c r="E20" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="44">
-        <v>2016</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44">
-        <v>45.139</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44">
-        <v>77.573</v>
-      </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A17" s="46"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-    </row>
-    <row r="18" ht="20.5" customHeight="1" spans="1:22">
-      <c r="A18" s="47" t="s">
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" ht="20.5" customHeight="1" spans="1:13">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52">
+        <v>87.382</v>
+      </c>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+    </row>
+    <row r="22" ht="20.5" customHeight="1" spans="1:13">
+      <c r="A22" s="54"/>
+      <c r="B22" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="48">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="49" t="s">
+      <c r="C22" s="52">
+        <v>2023</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52">
+        <v>91.282</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+    </row>
+    <row r="23" ht="20.5" customHeight="1" spans="1:13">
+      <c r="A23" s="54"/>
+      <c r="B23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49">
-        <v>97.35</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-    </row>
-    <row r="19" ht="20.5" customHeight="1" spans="1:22">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48">
-        <v>89.315</v>
-      </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-    </row>
-    <row r="20" ht="20.5" customHeight="1" spans="1:22">
-      <c r="A20" s="50"/>
-      <c r="B20" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="48">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48">
-        <v>97.74</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-    </row>
-    <row r="21" ht="20.5" customHeight="1" spans="1:22">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48">
-        <v>87.382</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-    </row>
-    <row r="22" ht="20.5" customHeight="1" spans="1:22">
-      <c r="A22" s="50"/>
-      <c r="B22" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="48">
-        <v>2023</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48">
-        <v>91.282</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48">
-        <v>80.082</v>
-      </c>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-    </row>
-    <row r="23" ht="20.5" customHeight="1" spans="1:22">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-    </row>
-    <row r="24" ht="20.5" customHeight="1" spans="1:22">
-      <c r="A24" s="50"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" ht="20.5" customHeight="1" spans="1:13">
+      <c r="A24" s="54"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" ht="20.5" customHeight="1"/>
     <row r="26" ht="20.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F1:V1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:V3"/>
+  <mergeCells count="17">
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -2446,31 +2174,32 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="5" width="71.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="71.1111111111111" style="2" customWidth="1"/>
     <col min="6" max="9" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -2481,10 +2210,10 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
@@ -2494,27 +2223,27 @@
     </row>
     <row r="3" ht="81.6" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
